--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhsingh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB358A8-5582-4F02-8B46-11A9ACF96D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -232,11 +233,14 @@
   <si>
     <t>RankingTest+MathmaticalOperations+PaperFolding+PaperCutting+7Codes</t>
   </si>
+  <si>
+    <t>4Codes+Non-verbal+Verbal Reasoning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -533,41 +537,137 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -585,102 +685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:R21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,36 +986,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="65"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1020,38 +1024,38 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="67" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="57" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1060,44 +1064,44 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="39" t="s">
+      <c r="I3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="57" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="58"/>
+      <c r="X3" s="26"/>
       <c r="Y3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1112,44 +1116,44 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="39" t="s">
+      <c r="I4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="49" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="50"/>
+      <c r="T4" s="39"/>
       <c r="U4" s="12">
         <v>26</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="41"/>
       <c r="Y4" s="12">
         <v>10</v>
       </c>
@@ -1164,48 +1168,48 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="39" t="s">
+      <c r="I5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="49" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="50"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="12">
         <v>24</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="66">
+      <c r="X5" s="31"/>
+      <c r="Y5" s="32">
         <v>2</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1216,40 +1220,40 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="39" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="26" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="27"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="14">
         <v>30</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="25"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="33"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1261,43 +1265,43 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="39" t="s">
+      <c r="I7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="28" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="W7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
       <c r="Z7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1309,30 +1313,30 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="39" t="s">
+      <c r="I8" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1341,30 +1345,30 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="41" t="s">
+      <c r="I9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="54" t="s">
         <v>29</v>
       </c>
@@ -1383,42 +1387,42 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="41" t="s">
+      <c r="I10" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="57" t="s">
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="60"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="28"/>
     </row>
     <row r="11" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1427,44 +1431,44 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="39" t="s">
+      <c r="I11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="57" t="s">
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="58" t="s">
+      <c r="W11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="58"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1479,44 +1483,44 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="39" t="s">
+      <c r="I12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="49" t="s">
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="50"/>
+      <c r="T12" s="39"/>
       <c r="U12" s="12">
         <v>15</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="51" t="s">
+      <c r="W12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="52"/>
+      <c r="X12" s="41"/>
       <c r="Y12" s="12">
         <v>10</v>
       </c>
@@ -1531,42 +1535,42 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="49" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="50"/>
+      <c r="T13" s="39"/>
       <c r="U13" s="12">
         <v>20</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="W13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="24">
+      <c r="X13" s="31"/>
+      <c r="Y13" s="61">
         <v>2</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1577,44 +1581,44 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="42" t="s">
+      <c r="I14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="26" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="27"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="14">
         <v>15</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="25"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="33"/>
     </row>
     <row r="15" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1623,43 +1627,43 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="42" t="s">
+      <c r="I15" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="28" t="s">
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
       <c r="V15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
+      <c r="W15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
       <c r="Z15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1671,40 +1675,40 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="41" t="s">
+      <c r="I16" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="32" t="s">
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1713,38 +1717,38 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="68" t="s">
+      <c r="I17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
     </row>
     <row r="18" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1753,38 +1757,38 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="68" t="s">
+      <c r="I18" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
     </row>
     <row r="19" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1793,38 +1797,38 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="68" t="s">
+      <c r="I19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -1833,34 +1837,34 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="69" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
     </row>
     <row r="21" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1869,38 +1873,38 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="36" t="s">
+      <c r="I21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
     </row>
     <row r="22" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1909,36 +1913,36 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="I22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
     </row>
     <row r="23" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1947,36 +1951,38 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="I23" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
     </row>
     <row r="24" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1985,36 +1991,36 @@
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="I24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
     </row>
     <row r="25" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2023,36 +2029,36 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="I25" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
     </row>
     <row r="26" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2061,36 +2067,36 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="I26" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
@@ -2099,32 +2105,32 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
     </row>
     <row r="28" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2133,28 +2139,28 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
+      <c r="I28" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="53"/>
     </row>
     <row r="29" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2163,28 +2169,28 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="23"/>
+      <c r="I29" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2193,49 +2199,102 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="23"/>
+      <c r="I30" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S16:Z20"/>
+    <mergeCell ref="S21:Z27"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="M10:R10"/>
@@ -2260,77 +2319,24 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S16:Z20"/>
-    <mergeCell ref="S21:Z27"/>
-    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB358A8-5582-4F02-8B46-11A9ACF96D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCF1F2-EFFA-4D3D-8B2C-59BA0DA60AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,8 @@
     <t>RankingTest+MathmaticalOperations+PaperFolding+PaperCutting+7Codes</t>
   </si>
   <si>
-    <t>4Codes+Non-verbal+Verbal Reasoning</t>
+    <t>11Codes+Non-verbal+Verbal Reasoning+Aptitute+Programming
+Logic</t>
   </si>
 </sst>
 </file>
@@ -245,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +349,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -502,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -537,6 +545,135 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,140 +689,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,7 +992,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:R23"/>
+      <selection activeCell="M24" sqref="M24:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,36 +1003,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2" spans="1:29" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1024,38 +1041,38 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="42" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="25" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1064,44 +1081,44 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="48" t="s">
+      <c r="I3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="25" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="60"/>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="26"/>
+      <c r="X3" s="60"/>
       <c r="Y3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1116,44 +1133,44 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="48" t="s">
+      <c r="I4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="38" t="s">
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="39"/>
+      <c r="T4" s="52"/>
       <c r="U4" s="12">
         <v>26</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="41"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="12">
         <v>10</v>
       </c>
@@ -1168,48 +1185,48 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="48" t="s">
+      <c r="I5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="38" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="39"/>
+      <c r="T5" s="52"/>
       <c r="U5" s="12">
         <v>24</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="68">
         <v>2</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1220,40 +1237,40 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="48" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="29" t="s">
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="30"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="14">
         <v>30</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1275,33 +1292,33 @@
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="48" t="s">
+      <c r="I7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="34" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
+      <c r="W7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
       <c r="Z7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1323,20 +1340,20 @@
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="48" t="s">
+      <c r="I8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1355,30 +1372,30 @@
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="45" t="s">
+      <c r="I9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="54" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="58"/>
     </row>
     <row r="10" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1397,32 +1414,32 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="45" t="s">
+      <c r="I10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="25" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="27" t="s">
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="28"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
     </row>
     <row r="11" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1441,34 +1458,34 @@
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="48" t="s">
+      <c r="I11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="25" t="s">
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="26"/>
+      <c r="T11" s="60"/>
       <c r="U11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="26"/>
+      <c r="X11" s="60"/>
       <c r="Y11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1493,34 +1510,34 @@
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="48" t="s">
+      <c r="I12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="38" t="s">
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="39"/>
+      <c r="T12" s="52"/>
       <c r="U12" s="12">
         <v>15</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="40" t="s">
+      <c r="W12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="41"/>
+      <c r="X12" s="54"/>
       <c r="Y12" s="12">
         <v>10</v>
       </c>
@@ -1535,42 +1552,42 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="38" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="39"/>
+      <c r="T13" s="52"/>
       <c r="U13" s="12">
         <v>20</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="W13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="61">
+      <c r="X13" s="55"/>
+      <c r="Y13" s="23">
         <v>2</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="Z13" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1591,34 +1608,34 @@
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="46" t="s">
+      <c r="I14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="29" t="s">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="30"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="14">
         <v>15</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="33"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1637,33 +1654,33 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="46" t="s">
+      <c r="I15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="34" t="s">
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
+      <c r="W15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
       <c r="Z15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1685,30 +1702,30 @@
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="45" t="s">
+      <c r="I16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="64" t="s">
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
     </row>
     <row r="17" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1727,28 +1744,28 @@
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="62" t="s">
+      <c r="I17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1767,28 +1784,28 @@
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="62" t="s">
+      <c r="I18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1807,28 +1824,28 @@
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="62" t="s">
+      <c r="I19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -1837,34 +1854,34 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="63" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1883,28 +1900,28 @@
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="68" t="s">
+      <c r="I21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
     </row>
     <row r="22" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1923,26 +1940,26 @@
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
+      <c r="I22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
     </row>
     <row r="23" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1961,28 +1978,28 @@
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="62" t="s">
+      <c r="I23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
     </row>
     <row r="24" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -2001,26 +2018,26 @@
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
+      <c r="I24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
     </row>
     <row r="25" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2039,26 +2056,26 @@
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
+      <c r="I25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
     </row>
     <row r="26" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2077,26 +2094,26 @@
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
+      <c r="I26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
@@ -2105,32 +2122,32 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
     </row>
     <row r="28" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2149,18 +2166,18 @@
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
+      <c r="I28" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2179,18 +2196,18 @@
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
+      <c r="I29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="22"/>
     </row>
     <row r="30" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2209,44 +2226,86 @@
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
+      <c r="I30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S16:Z20"/>
-    <mergeCell ref="S21:Z27"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="C2:L2"/>
@@ -2271,72 +2330,30 @@
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S16:Z20"/>
+    <mergeCell ref="S21:Z27"/>
     <mergeCell ref="C27:L27"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCF1F2-EFFA-4D3D-8B2C-59BA0DA60AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327975B4-2A50-4533-B54B-921506F436B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,54 @@
     <t>11Codes+Non-verbal+Verbal Reasoning+Aptitute+Programming
 Logic</t>
   </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>Programming
+Logic</t>
+  </si>
+  <si>
+    <t>Verbal Ability</t>
+  </si>
+  <si>
+    <t>Reasoning Ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming
+</t>
+  </si>
+  <si>
+    <t>Mocks</t>
+  </si>
+  <si>
+    <t>Closet Passage
+Direct and Indirect Speech</t>
+  </si>
+  <si>
+    <t>i/o 
+based
+ questions</t>
+  </si>
+  <si>
+    <t>4 Codes+ Programming Logic+ verbal Ability</t>
+  </si>
+  <si>
+    <t>7Codes</t>
+  </si>
+  <si>
+    <t>Divisibility</t>
+  </si>
+  <si>
+    <t>4Questions</t>
+  </si>
+  <si>
+    <t>Clock and
+Calendar</t>
+  </si>
+  <si>
+    <t>Mock1</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +294,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +405,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -548,16 +603,56 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,8 +673,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -605,18 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,6 +721,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,75 +797,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,1305 +1084,1559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:R24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="67"/>
-    </row>
-    <row r="2" spans="1:29" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="81"/>
+    </row>
+    <row r="2" spans="1:36" ht="46.8" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="69" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="59" t="s">
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="61" t="s">
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="62"/>
-    </row>
-    <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+    </row>
+    <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
         <v>44217</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="45" t="s">
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="59" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="10" t="s">
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="60" t="s">
+      <c r="AD3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="10" t="s">
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>44218</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="45" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="51" t="s">
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="12">
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="12">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="AD4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="12">
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="12">
         <v>10</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>44219</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="45" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="51" t="s">
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="52"/>
-      <c r="U5" s="12">
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="12">
         <v>24</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="AD5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="68">
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="82">
         <v>2</v>
       </c>
-      <c r="Z5" s="24" t="s">
+      <c r="AG5" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:36" s="5" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="3">
         <v>44220</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="45" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="25" t="s">
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="14">
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="14">
         <v>30</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-    </row>
-    <row r="7" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+    </row>
+    <row r="7" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="45" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="27" t="s">
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="15" t="s">
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="29" t="s">
+      <c r="AD7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="16" t="s">
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="45" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
-    </row>
-    <row r="9" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+    </row>
+    <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="56" t="s">
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-    </row>
-    <row r="10" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="72"/>
+    </row>
+    <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="32" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="59" t="s">
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61" t="s">
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="62"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="76"/>
+    </row>
+    <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="45" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="59" t="s">
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="60"/>
-      <c r="U11" s="10" t="s">
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="60" t="s">
+      <c r="AD11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="10" t="s">
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="45" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="51" t="s">
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="12">
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="12">
         <v>15</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="53" t="s">
+      <c r="AD12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="12">
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="12">
         <v>10</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:36" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="3">
         <v>44227</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="51" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="12">
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="12">
         <v>20</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="55" t="s">
+      <c r="AD13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="23">
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="38">
         <v>2</v>
       </c>
-      <c r="Z13" s="24" t="s">
+      <c r="AG13" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="33" t="s">
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="25" t="s">
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="14">
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="14">
         <v>15</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
-    </row>
-    <row r="15" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="37"/>
+    </row>
+    <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="33" t="s">
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="27" t="s">
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="15" t="s">
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="29" t="s">
+      <c r="AD15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="16" t="s">
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="32" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="36" t="s">
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-    </row>
-    <row r="17" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+    </row>
+    <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="31" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-    </row>
-    <row r="18" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+    </row>
+    <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="31" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+    </row>
+    <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44233</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="31" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+    </row>
+    <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
         <v>44234</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="35" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-    </row>
-    <row r="21" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+    </row>
+    <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44235</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="40" t="s">
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-    </row>
-    <row r="22" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+    </row>
+    <row r="22" spans="1:33" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44236</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="21"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-    </row>
-    <row r="23" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+    </row>
+    <row r="23" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44237</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="70" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-    </row>
-    <row r="24" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+    </row>
+    <row r="24" spans="1:33" s="27" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>44238</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="7" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-    </row>
-    <row r="25" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+    </row>
+    <row r="25" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="21"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-    </row>
-    <row r="26" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+    </row>
+    <row r="26" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44240</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="21"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+    </row>
+    <row r="27" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
         <v>44241</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-    </row>
-    <row r="28" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+    </row>
+    <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44242</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="21"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="22"/>
-    </row>
-    <row r="29" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="35"/>
+    </row>
+    <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44243</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="21"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="22"/>
-    </row>
-    <row r="30" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="35"/>
+    </row>
+    <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44244</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="21"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="22"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C23:G23"/>
@@ -2304,56 +2653,54 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S16:Z20"/>
-    <mergeCell ref="S21:Z27"/>
-    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z16:AG20"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="Z21:AG27"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327975B4-2A50-4533-B54B-921506F436B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B880A99-11EA-455F-B72B-B9F968D97558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -267,9 +267,6 @@
  questions</t>
   </si>
   <si>
-    <t>4 Codes+ Programming Logic+ verbal Ability</t>
-  </si>
-  <si>
     <t>7Codes</t>
   </si>
   <si>
@@ -284,6 +281,36 @@
   </si>
   <si>
     <t>Mock1</t>
+  </si>
+  <si>
+    <t>4 Codes+ Programming Logic+ verbal Ability+Pl+Mock</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>ParaJumbles
+Sentence
+Completion</t>
+  </si>
+  <si>
+    <t>BloodRelation
+Logical Connectives and Syllogs</t>
+  </si>
+  <si>
+    <t>Kadane,
+Coin change
+find pivot
+and 4 more</t>
+  </si>
+  <si>
+    <t>Mock02</t>
+  </si>
+  <si>
+    <t>All parameters completed</t>
   </si>
 </sst>
 </file>
@@ -565,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -625,53 +652,167 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,121 +823,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,54 +1123,60 @@
   <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
     <col min="27" max="27" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="35"/>
     </row>
     <row r="2" spans="1:36" ht="46.8" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1143,19 +1185,19 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
       <c r="N2" s="23" t="s">
         <v>52</v>
       </c>
@@ -1174,26 +1216,26 @@
       <c r="S2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="83" t="s">
+      <c r="T2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="73" t="s">
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="75" t="s">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
     </row>
     <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1202,51 +1244,51 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="73" t="s">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="74"/>
+      <c r="AA3" s="37"/>
       <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="74" t="s">
+      <c r="AD3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="74"/>
+      <c r="AE3" s="37"/>
       <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1261,51 +1303,51 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="65" t="s">
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="66"/>
+      <c r="AA4" s="50"/>
       <c r="AB4" s="12">
         <v>26</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="67" t="s">
+      <c r="AD4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="68"/>
+      <c r="AE4" s="52"/>
       <c r="AF4" s="12">
         <v>10</v>
       </c>
@@ -1320,55 +1362,55 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
-      <c r="T5" s="59" t="s">
+      <c r="T5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="65" t="s">
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="66"/>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="12">
         <v>24</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="69" t="s">
+      <c r="AD5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="82">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="43">
         <v>2</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AG5" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1379,47 +1421,47 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="39" t="s">
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="40"/>
+      <c r="AA6" s="41"/>
       <c r="AB6" s="14">
         <v>30</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="37"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="44"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -1431,50 +1473,50 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="59" t="s">
+      <c r="T7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="41" t="s">
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
       <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="43" t="s">
+      <c r="AD7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
       <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1486,37 +1528,37 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="59" t="s">
+      <c r="T8" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="62"/>
     </row>
     <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1525,47 +1567,47 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="70" t="s">
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="72"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
     </row>
     <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1574,49 +1616,49 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="73" t="s">
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="75" t="s">
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="76"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
     </row>
     <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1625,51 +1667,51 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="73" t="s">
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="74"/>
+      <c r="AA11" s="37"/>
       <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="74" t="s">
+      <c r="AD11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="74"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1684,51 +1726,51 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="59" t="s">
+      <c r="T12" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="65" t="s">
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="66"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="12">
         <v>15</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD12" s="67" t="s">
+      <c r="AD12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="68"/>
+      <c r="AE12" s="52"/>
       <c r="AF12" s="12">
         <v>10</v>
       </c>
@@ -1743,49 +1785,49 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="65" t="s">
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="66"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="12">
         <v>20</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="69" t="s">
+      <c r="AD13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="38">
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="82">
         <v>2</v>
       </c>
-      <c r="AG13" s="37" t="s">
+      <c r="AG13" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1796,51 +1838,51 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="51" t="s">
+      <c r="T14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="39" t="s">
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="40"/>
+      <c r="AA14" s="41"/>
       <c r="AB14" s="14">
         <v>15</v>
       </c>
       <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="37"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="44"/>
     </row>
     <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1849,50 +1891,50 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="51" t="s">
+      <c r="T15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="41" t="s">
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
       <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="43" t="s">
+      <c r="AD15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
       <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1904,47 +1946,47 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="50" t="s">
+      <c r="T16" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="54" t="s">
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
     </row>
     <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1953,45 +1995,45 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
     </row>
     <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2000,45 +2042,45 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="36" t="s">
+      <c r="T18" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
     </row>
     <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2047,45 +2089,45 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="36" t="s">
+      <c r="T19" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -2094,41 +2136,41 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="53" t="s">
+      <c r="T20" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
     </row>
     <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2137,47 +2179,47 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="29" t="s">
+      <c r="T21" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
     </row>
     <row r="22" spans="1:33" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2186,45 +2228,45 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
+      <c r="T22" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
     </row>
     <row r="23" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2233,23 +2275,23 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="23" t="s">
         <v>52</v>
       </c>
@@ -2268,212 +2310,226 @@
       <c r="S23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="45" t="s">
+      <c r="T23" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-    </row>
-    <row r="24" spans="1:33" s="27" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+    </row>
+    <row r="24" spans="1:33" s="27" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44238</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O24" s="28" t="s">
         <v>58</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>59</v>
       </c>
       <c r="S24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-    </row>
-    <row r="25" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+    </row>
+    <row r="25" spans="1:33" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-    </row>
-    <row r="26" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T25" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+    </row>
+    <row r="26" spans="1:33" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44240</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-    </row>
-    <row r="27" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="3">
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+    </row>
+    <row r="27" spans="1:33" s="6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="87">
         <v>44241</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
     </row>
     <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2482,35 +2538,35 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="65"/>
     </row>
     <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2519,35 +2575,35 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="65"/>
     </row>
     <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2556,61 +2612,104 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Z21:AG27"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z16:AG20"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="T10:Y10"/>
@@ -2635,72 +2734,29 @@
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z16:AG20"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="Z21:AG27"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B880A99-11EA-455F-B72B-B9F968D97558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8DBAB-7191-434F-9F4E-46A55B861C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -311,6 +312,50 @@
   </si>
   <si>
     <t>All parameters completed</t>
+  </si>
+  <si>
+    <t>NumberSystem
+and HCF LCM</t>
+  </si>
+  <si>
+    <t>Loops
+Operators</t>
+  </si>
+  <si>
+    <t>Tenses
+Antonyms</t>
+  </si>
+  <si>
+    <t>Calendar
+Clock
+Series</t>
+  </si>
+  <si>
+    <t>Mock03</t>
+  </si>
+  <si>
+    <t>SearchIn
+Rotated</t>
+  </si>
+  <si>
+    <t>Profit &amp; Loss
+Percentage</t>
+  </si>
+  <si>
+    <t>Recursion
+Arrays</t>
+  </si>
+  <si>
+    <t>Articles
+Error Identification</t>
+  </si>
+  <si>
+    <t>Data Sufficiency
+Venn Diagrams</t>
+  </si>
+  <si>
+    <t>Trailing Zeroes in factorial
+Sort and array of 1 and 2</t>
   </si>
 </sst>
 </file>
@@ -592,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -655,185 +700,191 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,16 +1171,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="0.109375" customWidth="1"/>
     <col min="14" max="14" width="11.109375" customWidth="1"/>
     <col min="15" max="15" width="12.21875" customWidth="1"/>
     <col min="16" max="16" width="11.77734375" customWidth="1"/>
@@ -1140,43 +1193,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="35"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:36" ht="46.8" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1185,19 +1238,19 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="23" t="s">
         <v>52</v>
       </c>
@@ -1216,26 +1269,26 @@
       <c r="S2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="36" t="s">
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
     </row>
     <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1244,51 +1297,51 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="36" t="s">
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="37"/>
+      <c r="AA3" s="41"/>
       <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="37"/>
+      <c r="AE3" s="41"/>
       <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1303,51 +1356,51 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="61" t="s">
+      <c r="T4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="49" t="s">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="50"/>
+      <c r="AA4" s="54"/>
       <c r="AB4" s="12">
         <v>26</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="52"/>
+      <c r="AE4" s="56"/>
       <c r="AF4" s="12">
         <v>10</v>
       </c>
@@ -1362,55 +1415,55 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
-      <c r="T5" s="61" t="s">
+      <c r="T5" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="49" t="s">
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="50"/>
+      <c r="AA5" s="54"/>
       <c r="AB5" s="12">
         <v>24</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="42" t="s">
+      <c r="AD5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="43">
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="47">
         <v>2</v>
       </c>
-      <c r="AG5" s="44" t="s">
+      <c r="AG5" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1421,47 +1474,47 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="61" t="s">
+      <c r="T6" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="40" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="41"/>
+      <c r="AA6" s="45"/>
       <c r="AB6" s="14">
         <v>30</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="44"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="48"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -1473,50 +1526,50 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="45" t="s">
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
       <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="47" t="s">
+      <c r="AD7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
       <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1528,37 +1581,37 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="62"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="66"/>
     </row>
     <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1567,47 +1620,47 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="66" t="s">
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="68"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="72"/>
     </row>
     <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1616,49 +1669,49 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="58" t="s">
+      <c r="T10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="36" t="s">
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38" t="s">
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="39"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="43"/>
     </row>
     <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1667,51 +1720,51 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="36" t="s">
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="37"/>
+      <c r="AA11" s="41"/>
       <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="37" t="s">
+      <c r="AD11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="37"/>
+      <c r="AE11" s="41"/>
       <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1726,51 +1779,51 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="61" t="s">
+      <c r="T12" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="49" t="s">
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="50"/>
+      <c r="AA12" s="54"/>
       <c r="AB12" s="12">
         <v>15</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD12" s="51" t="s">
+      <c r="AD12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="52"/>
+      <c r="AE12" s="56"/>
       <c r="AF12" s="12">
         <v>10</v>
       </c>
@@ -1785,49 +1838,49 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="49" t="s">
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="50"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="12">
         <v>20</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="42" t="s">
+      <c r="AD13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="82">
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="87">
         <v>2</v>
       </c>
-      <c r="AG13" s="44" t="s">
+      <c r="AG13" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1838,51 +1891,51 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="59" t="s">
+      <c r="T14" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="40" t="s">
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="41"/>
+      <c r="AA14" s="45"/>
       <c r="AB14" s="14">
         <v>15</v>
       </c>
       <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="44"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="48"/>
     </row>
     <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1891,50 +1944,50 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="59" t="s">
+      <c r="T15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="45" t="s">
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
       <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="47" t="s">
+      <c r="AD15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
       <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1946,47 +1999,47 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="58" t="s">
+      <c r="T16" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="73" t="s">
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
     </row>
     <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1995,45 +2048,45 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="72" t="s">
+      <c r="T17" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
     </row>
     <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2042,45 +2095,45 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="72" t="s">
+      <c r="T18" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
     </row>
     <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2089,45 +2142,45 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="72" t="s">
+      <c r="T19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -2136,41 +2189,41 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="86" t="s">
+      <c r="T20" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
     </row>
     <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2179,47 +2232,47 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="80" t="s">
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
     </row>
     <row r="22" spans="1:33" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2228,45 +2281,45 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="72" t="s">
+      <c r="T22" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
     </row>
     <row r="23" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2275,23 +2328,23 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
       <c r="N23" s="23" t="s">
         <v>52</v>
       </c>
@@ -2310,22 +2363,22 @@
       <c r="S23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="83" t="s">
+      <c r="T23" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
     </row>
     <row r="24" spans="1:33" s="27" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -2334,23 +2387,23 @@
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="26" t="s">
         <v>61</v>
       </c>
@@ -2369,22 +2422,22 @@
       <c r="S24" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="59" t="s">
+      <c r="T24" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="85"/>
+      <c r="AE24" s="85"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="85"/>
     </row>
     <row r="25" spans="1:33" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2393,23 +2446,23 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="21" t="s">
         <v>66</v>
       </c>
@@ -2428,22 +2481,22 @@
       <c r="S25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="T25" s="72" t="s">
+      <c r="T25" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="81"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
     </row>
     <row r="26" spans="1:33" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2452,84 +2505,108 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87">
+      <c r="A27" s="31">
         <v>44241</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="S27" s="25"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
     </row>
     <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2538,35 +2615,35 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="65"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="69"/>
     </row>
     <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2575,35 +2652,35 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="65"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="69"/>
     </row>
     <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2612,35 +2689,55 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="65"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="69"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="113">

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8DBAB-7191-434F-9F4E-46A55B861C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDFE3A-6FC4-4B7B-BAB6-C171A2D59172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -356,6 +355,52 @@
   <si>
     <t>Trailing Zeroes in factorial
 Sort and array of 1 and 2</t>
+  </si>
+  <si>
+    <t>Mock04</t>
+  </si>
+  <si>
+    <t>Geometry
+Ratio and Proportion</t>
+  </si>
+  <si>
+    <t>Coding Decoding
+Data Interpretation</t>
+  </si>
+  <si>
+    <t>Prepostions
+Sentence Improvement and Correction
+Subject Verb Agreement</t>
+  </si>
+  <si>
+    <t>OOPS</t>
+  </si>
+  <si>
+    <t>Mock05</t>
+  </si>
+  <si>
+    <t>Data 
+Arrangement</t>
+  </si>
+  <si>
+    <t>Done ALL</t>
+  </si>
+  <si>
+    <t>Synonym
+Active Passive
+Idiom Phrases</t>
+  </si>
+  <si>
+    <t>Permutation
+and
+Combinations
+Time and Work</t>
+  </si>
+  <si>
+    <t>Mock06</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -637,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,18 +748,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,6 +942,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27:Y27"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,53 +1256,52 @@
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="0.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="12.5546875" customWidth="1"/>
     <col min="27" max="27" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="39"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
     </row>
     <row r="2" spans="1:36" ht="46.8" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1238,19 +1310,19 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="23" t="s">
         <v>52</v>
       </c>
@@ -1269,26 +1341,26 @@
       <c r="S2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="40" t="s">
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="42" t="s">
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
     </row>
     <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1297,51 +1369,51 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="40" t="s">
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="41"/>
+      <c r="AA3" s="45"/>
       <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="41"/>
+      <c r="AE3" s="45"/>
       <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1356,51 +1428,51 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="65" t="s">
+      <c r="T4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="53" t="s">
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="54"/>
+      <c r="AA4" s="58"/>
       <c r="AB4" s="12">
         <v>26</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="56"/>
+      <c r="AE4" s="60"/>
       <c r="AF4" s="12">
         <v>10</v>
       </c>
@@ -1415,55 +1487,55 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
-      <c r="T5" s="65" t="s">
+      <c r="T5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="53" t="s">
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="54"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="12">
         <v>24</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="46" t="s">
+      <c r="AD5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="47">
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="51">
         <v>2</v>
       </c>
-      <c r="AG5" s="48" t="s">
+      <c r="AG5" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1474,47 +1546,47 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="65" t="s">
+      <c r="T6" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="44" t="s">
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="45"/>
+      <c r="AA6" s="49"/>
       <c r="AB6" s="14">
         <v>30</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="48"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="52"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -1526,50 +1598,50 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="49" t="s">
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
       <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="51" t="s">
+      <c r="AD7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
       <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1581,37 +1653,37 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="65" t="s">
+      <c r="T8" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="66"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="70"/>
     </row>
     <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1620,47 +1692,47 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="70" t="s">
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="72"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="76"/>
     </row>
     <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1669,49 +1741,49 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="62" t="s">
+      <c r="T10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="40" t="s">
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="42" t="s">
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="43"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="47"/>
     </row>
     <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1720,51 +1792,51 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="40" t="s">
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="41"/>
+      <c r="AA11" s="45"/>
       <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="41" t="s">
+      <c r="AD11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="41"/>
+      <c r="AE11" s="45"/>
       <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1779,51 +1851,51 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="65" t="s">
+      <c r="T12" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="53" t="s">
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="54"/>
+      <c r="AA12" s="58"/>
       <c r="AB12" s="12">
         <v>15</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD12" s="55" t="s">
+      <c r="AD12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="56"/>
+      <c r="AE12" s="60"/>
       <c r="AF12" s="12">
         <v>10</v>
       </c>
@@ -1838,49 +1910,49 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="53" t="s">
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="54"/>
+      <c r="AA13" s="58"/>
       <c r="AB13" s="12">
         <v>20</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="46" t="s">
+      <c r="AD13" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="87">
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="91">
         <v>2</v>
       </c>
-      <c r="AG13" s="48" t="s">
+      <c r="AG13" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1891,51 +1963,51 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="63" t="s">
+      <c r="T14" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="44" t="s">
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="45"/>
+      <c r="AA14" s="49"/>
       <c r="AB14" s="14">
         <v>15</v>
       </c>
       <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="48"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1944,50 +2016,50 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="63" t="s">
+      <c r="T15" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="49" t="s">
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
       <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="51" t="s">
+      <c r="AD15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
       <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1999,47 +2071,47 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="62" t="s">
+      <c r="T16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="77" t="s">
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
     </row>
     <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2048,45 +2120,45 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="76" t="s">
+      <c r="T17" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
     </row>
     <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2095,45 +2167,45 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="76" t="s">
+      <c r="T18" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
     </row>
     <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2142,45 +2214,45 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="76" t="s">
+      <c r="T19" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="80"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -2189,41 +2261,41 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="91" t="s">
+      <c r="T20" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
     </row>
     <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2232,47 +2304,47 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="76" t="s">
+      <c r="T21" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="84" t="s">
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="89"/>
     </row>
     <row r="22" spans="1:33" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2281,45 +2353,45 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="76" t="s">
+      <c r="T22" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
     </row>
     <row r="23" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2328,23 +2400,23 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
       <c r="N23" s="23" t="s">
         <v>52</v>
       </c>
@@ -2363,22 +2435,22 @@
       <c r="S23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="88" t="s">
+      <c r="T23" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
     </row>
     <row r="24" spans="1:33" s="27" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -2387,23 +2459,23 @@
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="26" t="s">
         <v>61</v>
       </c>
@@ -2422,47 +2494,47 @@
       <c r="S24" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="T24" s="63" t="s">
+      <c r="T24" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="85"/>
-    </row>
-    <row r="25" spans="1:33" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="89"/>
+    </row>
+    <row r="25" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="98">
         <v>44239</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
       <c r="N25" s="21" t="s">
         <v>66</v>
       </c>
@@ -2481,47 +2553,47 @@
       <c r="S25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="T25" s="76" t="s">
+      <c r="T25" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-    </row>
-    <row r="26" spans="1:33" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+    </row>
+    <row r="26" spans="1:33" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="98">
         <v>44240</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="30" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2603,7 @@
       <c r="P26" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="33" t="s">
+      <c r="Q26" s="31" t="s">
         <v>78</v>
       </c>
       <c r="R26" s="30" t="s">
@@ -2540,207 +2612,280 @@
       <c r="S26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="T26" s="76" t="s">
+      <c r="T26" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+      <c r="A27" s="96">
         <v>44241</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="34" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="P27" s="34" t="s">
+      <c r="P27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="34" t="s">
+      <c r="Q27" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="R27" s="34" t="s">
+      <c r="R27" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-    </row>
-    <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="S27" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="T27" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+    </row>
+    <row r="28" spans="1:33" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
         <v>44242</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="69"/>
-    </row>
-    <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="73"/>
+    </row>
+    <row r="29" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
         <v>44243</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="69"/>
-    </row>
-    <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="73"/>
+    </row>
+    <row r="30" spans="1:33" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
         <v>44244</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="69"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N31">
-        <v>5</v>
-      </c>
-      <c r="O31">
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="73"/>
+    </row>
+    <row r="31" spans="1:33" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <v>44244</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="73"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="R32">
         <v>9</v>
       </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-      <c r="R31">
-        <v>9</v>
-      </c>
-      <c r="S31">
-        <v>7</v>
-      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="116">
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="T31:Y31"/>
     <mergeCell ref="Z21:AG27"/>
     <mergeCell ref="C27:M27"/>
     <mergeCell ref="I18:M18"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhsingh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhsingh\Desktop\tCS_Cracker19feb-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>RankingTest+MathmaticalOperations+PaperFolding+PaperCutting+7Codes</t>
+  </si>
+  <si>
+    <t>7codes</t>
+  </si>
+  <si>
+    <t>4Codes+ Verbal+NonVerbal Reasoning</t>
   </si>
 </sst>
 </file>
@@ -533,41 +539,137 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -585,102 +687,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,7 +977,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:R21"/>
+      <selection activeCell="M24" sqref="M24:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,36 +988,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="65"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1020,38 +1026,38 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="67" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="57" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1060,44 +1066,44 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="39" t="s">
+      <c r="I3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="57" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="58"/>
+      <c r="X3" s="26"/>
       <c r="Y3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1112,44 +1118,44 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="39" t="s">
+      <c r="I4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="49" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="50"/>
+      <c r="T4" s="39"/>
       <c r="U4" s="12">
         <v>26</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="41"/>
       <c r="Y4" s="12">
         <v>10</v>
       </c>
@@ -1164,48 +1170,48 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="39" t="s">
+      <c r="I5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="49" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="50"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="12">
         <v>24</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="66">
+      <c r="X5" s="31"/>
+      <c r="Y5" s="32">
         <v>2</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1216,40 +1222,40 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="39" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="26" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="27"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="14">
         <v>30</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="25"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="33"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1261,43 +1267,43 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="39" t="s">
+      <c r="I7" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="28" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="W7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
       <c r="Z7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1309,30 +1315,30 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="39" t="s">
+      <c r="I8" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1341,30 +1347,30 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="41" t="s">
+      <c r="I9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="54" t="s">
         <v>29</v>
       </c>
@@ -1383,42 +1389,42 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="41" t="s">
+      <c r="I10" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="57" t="s">
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="60"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="28"/>
     </row>
     <row r="11" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1427,44 +1433,44 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="39" t="s">
+      <c r="I11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="57" t="s">
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="58" t="s">
+      <c r="W11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="58"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1479,44 +1485,44 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="39" t="s">
+      <c r="I12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="49" t="s">
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="50"/>
+      <c r="T12" s="39"/>
       <c r="U12" s="12">
         <v>15</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="51" t="s">
+      <c r="W12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="52"/>
+      <c r="X12" s="41"/>
       <c r="Y12" s="12">
         <v>10</v>
       </c>
@@ -1531,42 +1537,42 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="49" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="50"/>
+      <c r="T13" s="39"/>
       <c r="U13" s="12">
         <v>20</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="W13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="24">
+      <c r="X13" s="31"/>
+      <c r="Y13" s="61">
         <v>2</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1577,44 +1583,44 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="42" t="s">
+      <c r="I14" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="26" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="27"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="14">
         <v>15</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="25"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="33"/>
     </row>
     <row r="15" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1623,43 +1629,43 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="42" t="s">
+      <c r="I15" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="28" t="s">
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
       <c r="V15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
+      <c r="W15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
       <c r="Z15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1671,40 +1677,40 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="41" t="s">
+      <c r="I16" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="32" t="s">
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1713,38 +1719,38 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="68" t="s">
+      <c r="I17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
     </row>
     <row r="18" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1753,38 +1759,38 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="68" t="s">
+      <c r="I18" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
     </row>
     <row r="19" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1793,38 +1799,38 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="68" t="s">
+      <c r="I19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -1833,34 +1839,34 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="69" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
     </row>
     <row r="21" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1869,38 +1875,40 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="36" t="s">
+      <c r="I21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
     </row>
     <row r="22" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1909,36 +1917,38 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="I22" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
     </row>
     <row r="23" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1947,36 +1957,38 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="I23" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
     </row>
     <row r="24" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1985,36 +1997,36 @@
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="I24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
     </row>
     <row r="25" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2023,36 +2035,36 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="I25" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
     </row>
     <row r="26" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2061,36 +2073,36 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="I26" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
@@ -2099,32 +2111,32 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
     </row>
     <row r="28" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2133,28 +2145,28 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
+      <c r="I28" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="53"/>
     </row>
     <row r="29" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2163,28 +2175,28 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="23"/>
+      <c r="I29" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2193,49 +2205,102 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="23"/>
+      <c r="I30" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S16:Z20"/>
+    <mergeCell ref="S21:Z27"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="M10:R10"/>
@@ -2260,77 +2325,24 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S16:Z20"/>
-    <mergeCell ref="S21:Z27"/>
-    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhsingh\Desktop\tCS_Cracker19feb-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545679-C27F-48B8-B4EA-76378C7838B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -238,16 +239,34 @@
   <si>
     <t>4Codes+ Verbal+NonVerbal Reasoning</t>
   </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Programming Logic</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Mocks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +370,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,6 +566,147 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,140 +722,39 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,1312 +1040,2372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:R24"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" spans="1:29" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71"/>
+    </row>
+    <row r="2" spans="1:36" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="42" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="25" t="s">
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-    </row>
-    <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66"/>
+    </row>
+    <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
         <v>44217</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="48" t="s">
+      <c r="I3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="25" t="s">
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="10" t="s">
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="AD3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="10" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>44218</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="48" t="s">
+      <c r="I4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="38" t="s">
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="12">
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="12">
         <v>26</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="AD4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="12">
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="12">
         <v>10</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>44219</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="48" t="s">
+      <c r="I5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="38" t="s">
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="12">
-        <v>24</v>
-      </c>
-      <c r="V5" s="12" t="s">
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="12">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="AD5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32">
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="72">
         <v>2</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AG5" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="5" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:36" s="5" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="3">
         <v>44220</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="48" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="29" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="14">
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="14">
         <v>30</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-    </row>
-    <row r="7" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+    </row>
+    <row r="7" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="48" t="s">
+      <c r="I7" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="34" t="s">
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="15" t="s">
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="16" t="s">
+      <c r="AD7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="48" t="s">
+      <c r="I8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-    </row>
-    <row r="9" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
+    </row>
+    <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="45" t="s">
+      <c r="I9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="54" t="s">
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
-    </row>
-    <row r="10" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="62"/>
+    </row>
+    <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="45" t="s">
+      <c r="I10" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="25" t="s">
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="27" t="s">
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="28"/>
-    </row>
-    <row r="11" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="66"/>
+    </row>
+    <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="48" t="s">
+      <c r="I11" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="25" t="s">
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="10" t="s">
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="AD11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="10" t="s">
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="48" t="s">
+      <c r="I12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="38" t="s">
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="12">
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="12">
         <v>15</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="40" t="s">
+      <c r="AD12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="12">
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="12">
         <v>10</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:36" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="3">
         <v>44227</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="38" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="12">
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="12">
         <v>20</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="AD13" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="61">
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="29">
         <v>2</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="AG13" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="46" t="s">
+      <c r="I14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="29" t="s">
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="30"/>
-      <c r="U14" s="14">
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="14">
         <v>15</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="33"/>
-    </row>
-    <row r="15" spans="1:29" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="28"/>
+    </row>
+    <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="46" t="s">
+      <c r="I15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="34" t="s">
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="15" t="s">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="16" t="s">
+      <c r="AD15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="45" t="s">
+      <c r="I16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="64" t="s">
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-    </row>
-    <row r="17" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+    </row>
+    <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="62" t="s">
+      <c r="I17" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-    </row>
-    <row r="18" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+    </row>
+    <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="62" t="s">
+      <c r="I18" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-    </row>
-    <row r="19" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+    </row>
+    <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44233</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="62" t="s">
+      <c r="I19" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+    </row>
+    <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
         <v>44234</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="63" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-    </row>
-    <row r="21" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+    </row>
+    <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44235</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="62" t="s">
+      <c r="I21" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="68" t="s">
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-    </row>
-    <row r="22" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+    </row>
+    <row r="22" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44236</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="62" t="s">
+      <c r="I22" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-    </row>
-    <row r="23" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+    </row>
+    <row r="23" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44237</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="62" t="s">
+      <c r="I23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-    </row>
-    <row r="24" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+    </row>
+    <row r="24" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44238</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-    </row>
-    <row r="25" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+    </row>
+    <row r="25" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-    </row>
-    <row r="26" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+    </row>
+    <row r="26" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44240</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="I26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+    </row>
+    <row r="27" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
         <v>44241</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-    </row>
-    <row r="28" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+    </row>
+    <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44242</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-    </row>
-    <row r="29" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="26"/>
+    </row>
+    <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44243</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
-    </row>
-    <row r="30" spans="1:26" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="26"/>
+    </row>
+    <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44244</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
+      <c r="I30" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="26"/>
+    </row>
+    <row r="31" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="26"/>
+    </row>
+    <row r="33" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="26"/>
+    </row>
+    <row r="34" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="26"/>
+    </row>
+    <row r="35" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="26"/>
+    </row>
+    <row r="36" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="26"/>
+    </row>
+    <row r="37" spans="1:25" s="80" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="75"/>
+    </row>
+    <row r="38" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="26"/>
+    </row>
+    <row r="39" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="26"/>
+    </row>
+    <row r="40" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="26"/>
+    </row>
+    <row r="41" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="26"/>
+    </row>
+    <row r="42" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="26"/>
+    </row>
+    <row r="43" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="26"/>
+    </row>
+    <row r="44" spans="1:25" s="80" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="75"/>
+    </row>
+    <row r="45" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="26"/>
+    </row>
+    <row r="46" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="26"/>
+    </row>
+    <row r="47" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="26"/>
+    </row>
+    <row r="48" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="26"/>
+    </row>
+    <row r="49" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="26"/>
+    </row>
+    <row r="50" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="26"/>
+    </row>
+    <row r="51" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S16:Z20"/>
-    <mergeCell ref="S21:Z27"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="I3:L3"/>
+  <mergeCells count="176">
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -2299,50 +3426,56 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z16:AG20"/>
+    <mergeCell ref="Z21:AG27"/>
+    <mergeCell ref="C27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545679-C27F-48B8-B4EA-76378C7838B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B9C17D-1091-4FCF-BA06-5C7F14600F26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>Mocks</t>
+  </si>
+  <si>
+    <t>5Coding
+ Question</t>
+  </si>
+  <si>
+    <t>7Coding
+Questions</t>
+  </si>
+  <si>
+    <t>HCF,LCM
+, Number System</t>
   </si>
 </sst>
 </file>
@@ -531,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -579,7 +591,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,14 +618,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -602,6 +669,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +690,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,6 +720,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,118 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47:Y47"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,43 +1074,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="1:36" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1104,45 +1119,45 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="63" t="s">
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65" t="s">
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="66"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
     </row>
     <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1151,51 +1166,51 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="I3" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="63" t="s">
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="64"/>
+      <c r="AA3" s="46"/>
       <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="64" t="s">
+      <c r="AD3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="64"/>
+      <c r="AE3" s="46"/>
       <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1210,51 +1225,51 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="I4" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="55" t="s">
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="56"/>
+      <c r="AA4" s="59"/>
       <c r="AB4" s="12">
         <v>26</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="57" t="s">
+      <c r="AD4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="58"/>
+      <c r="AE4" s="61"/>
       <c r="AF4" s="12">
         <v>10</v>
       </c>
@@ -1269,55 +1284,55 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="I5" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="55" t="s">
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="56"/>
+      <c r="AA5" s="59"/>
       <c r="AB5" s="12">
         <v>24</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="59" t="s">
+      <c r="AD5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="72">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="52">
         <v>2</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="AG5" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1328,47 +1343,47 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="30" t="s">
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="31"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="14">
         <v>30</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="28"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="53"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -1380,50 +1395,50 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="I7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="49" t="s">
+      <c r="T7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="32" t="s">
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
       <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
+      <c r="AD7" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
       <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1435,37 +1450,37 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="I8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="49" t="s">
+      <c r="T8" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="69"/>
     </row>
     <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1474,47 +1489,47 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="I9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="60" t="s">
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="73"/>
     </row>
     <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1523,49 +1538,49 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="I10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="63" t="s">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="65" t="s">
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="66"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="48"/>
     </row>
     <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1574,51 +1589,51 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="I11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="49" t="s">
+      <c r="T11" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="63" t="s">
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="64"/>
+      <c r="AA11" s="46"/>
       <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="64" t="s">
+      <c r="AD11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="64"/>
+      <c r="AE11" s="46"/>
       <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1633,51 +1648,51 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="I12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
-      <c r="T12" s="49" t="s">
+      <c r="T12" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="55" t="s">
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="56"/>
+      <c r="AA12" s="59"/>
       <c r="AB12" s="12">
         <v>15</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD12" s="57" t="s">
+      <c r="AD12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="58"/>
+      <c r="AE12" s="61"/>
       <c r="AF12" s="12">
         <v>10</v>
       </c>
@@ -1692,49 +1707,49 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="55" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="56"/>
+      <c r="AA13" s="59"/>
       <c r="AB13" s="12">
         <v>20</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="59" t="s">
+      <c r="AD13" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="29">
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="77">
         <v>2</v>
       </c>
-      <c r="AG13" s="28" t="s">
+      <c r="AG13" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1745,51 +1760,51 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="I14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="30" t="s">
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="31"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="14">
         <v>15</v>
       </c>
       <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="28"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="53"/>
     </row>
     <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1798,50 +1813,50 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="I15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="32" t="s">
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
       <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
+      <c r="AD15" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
       <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1853,47 +1868,47 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
+      <c r="I16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="40" t="s">
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
     </row>
     <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1902,45 +1917,45 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
+      <c r="I17" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
     </row>
     <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1949,45 +1964,45 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
+      <c r="I18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="27" t="s">
+      <c r="T18" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
     </row>
     <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1996,45 +2011,45 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="I19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="27" t="s">
+      <c r="T19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -2043,41 +2058,41 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="39" t="s">
+      <c r="T20" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
     </row>
     <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2086,47 +2101,47 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="I21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="27" t="s">
+      <c r="T21" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="44" t="s">
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
     </row>
     <row r="22" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2135,45 +2150,45 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="I22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
-      <c r="T22" s="27" t="s">
+      <c r="T22" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
     </row>
     <row r="23" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2182,45 +2197,45 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="I23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="27" t="s">
+      <c r="T23" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
     </row>
     <row r="24" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -2229,43 +2244,43 @@
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
+      <c r="I24" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
     </row>
     <row r="25" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2274,43 +2289,43 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="I25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
     </row>
     <row r="26" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2319,43 +2334,43 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
+      <c r="I26" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="84"/>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
@@ -2364,39 +2379,39 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
     </row>
     <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2405,35 +2420,35 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="26"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="33"/>
     </row>
     <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2442,35 +2457,35 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="I29" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="26"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="33"/>
     </row>
     <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2479,35 +2494,35 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="I30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="26"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
     </row>
     <row r="31" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2516,35 +2531,35 @@
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
+      <c r="I31" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="26"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="33"/>
     </row>
     <row r="32" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -2553,35 +2568,35 @@
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="I32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="26"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="33"/>
     </row>
     <row r="33" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -2590,35 +2605,35 @@
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
+      <c r="I33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="26"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="33"/>
     </row>
     <row r="34" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2627,35 +2642,35 @@
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+      <c r="I34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="26"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="33"/>
     </row>
     <row r="35" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -2664,35 +2679,35 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="I35" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="26"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="33"/>
     </row>
     <row r="36" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2701,121 +2716,127 @@
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="82" t="s">
+      <c r="I36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="O36" s="82" t="s">
+      <c r="O36" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="82" t="s">
+      <c r="P36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" s="82" t="s">
+      <c r="Q36" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="82" t="s">
+      <c r="R36" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="S36" s="82" t="s">
+      <c r="S36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
-    </row>
-    <row r="37" spans="1:25" s="80" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="33"/>
+    </row>
+    <row r="37" spans="1:25" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44251</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="75"/>
-    </row>
-    <row r="38" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="26"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+    </row>
+    <row r="38" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44252</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="83"/>
+      <c r="I38" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
-      <c r="R38" s="83"/>
+      <c r="R38" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="S38" s="22"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="26"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="33"/>
     </row>
     <row r="39" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -2824,35 +2845,35 @@
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="83"/>
+      <c r="I39" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="83"/>
+      <c r="R39" s="28"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="26"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="33"/>
     </row>
     <row r="40" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -2861,35 +2882,35 @@
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="83"/>
+      <c r="I40" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
-      <c r="R40" s="83"/>
+      <c r="R40" s="28"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="26"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -2898,35 +2919,35 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="83"/>
+      <c r="I41" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="28"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
-      <c r="R41" s="83"/>
+      <c r="R41" s="28"/>
       <c r="S41" s="22"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="26"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -2935,35 +2956,35 @@
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="83"/>
+      <c r="I42" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
-      <c r="R42" s="83"/>
+      <c r="R42" s="28"/>
       <c r="S42" s="22"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="26"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="33"/>
     </row>
     <row r="43" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -2972,72 +2993,72 @@
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="83"/>
+      <c r="I43" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
-      <c r="R43" s="83"/>
+      <c r="R43" s="28"/>
       <c r="S43" s="22"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="26"/>
-    </row>
-    <row r="44" spans="1:25" s="80" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="33"/>
+    </row>
+    <row r="44" spans="1:25" s="25" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44258</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="75"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="37"/>
     </row>
     <row r="45" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3046,35 +3067,35 @@
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="83"/>
+      <c r="I45" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
-      <c r="R45" s="83"/>
+      <c r="R45" s="28"/>
       <c r="S45" s="22"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="26"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="33"/>
     </row>
     <row r="46" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -3083,35 +3104,35 @@
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="83"/>
+      <c r="I46" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
-      <c r="R46" s="83"/>
+      <c r="R46" s="28"/>
       <c r="S46" s="22"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="26"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="33"/>
     </row>
     <row r="47" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -3120,35 +3141,35 @@
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="83"/>
+      <c r="I47" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
-      <c r="R47" s="83"/>
+      <c r="R47" s="28"/>
       <c r="S47" s="22"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="26"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="33"/>
     </row>
     <row r="48" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -3157,35 +3178,35 @@
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="83"/>
+      <c r="I48" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
-      <c r="R48" s="83"/>
+      <c r="R48" s="28"/>
       <c r="S48" s="22"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="26"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="33"/>
     </row>
     <row r="49" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -3194,35 +3215,35 @@
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="83"/>
+      <c r="I49" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
-      <c r="R49" s="83"/>
+      <c r="R49" s="28"/>
       <c r="S49" s="22"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="26"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="33"/>
     </row>
     <row r="50" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -3231,35 +3252,35 @@
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="83"/>
+      <c r="I50" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
-      <c r="R50" s="83"/>
+      <c r="R50" s="28"/>
       <c r="S50" s="22"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="26"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="33"/>
     </row>
     <row r="51" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -3268,59 +3289,169 @@
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="83"/>
+      <c r="I51" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
-      <c r="R51" s="83"/>
+      <c r="R51" s="28"/>
       <c r="S51" s="22"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="26"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z21:AG27"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z16:AG20"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
@@ -3345,137 +3476,27 @@
     <mergeCell ref="I40:M40"/>
     <mergeCell ref="T40:Y40"/>
     <mergeCell ref="I41:M41"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z16:AG20"/>
-    <mergeCell ref="Z21:AG27"/>
-    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="T50:Y50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/TCS NQT Schedule.xlsx
+++ b/TCS NQT Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanisntsolo-boxx\Desktop\tcsSuperNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B9C17D-1091-4FCF-BA06-5C7F14600F26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B182C-4E08-43CE-A02F-E7C93663D575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -269,6 +269,13 @@
     <t>HCF,LCM
 , Number System</t>
   </si>
+  <si>
+    <t>4Coding
+Question</t>
+  </si>
+  <si>
+    <t>3 Codes</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +397,35 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,6 +642,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,6 +666,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,146 +810,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,43 +1133,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="75"/>
     </row>
     <row r="2" spans="1:36" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="8" t="s">
@@ -1119,45 +1178,45 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="45" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="48"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
     </row>
     <row r="3" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
@@ -1166,51 +1225,51 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
+      <c r="I3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="45" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="46"/>
+      <c r="AA3" s="68"/>
       <c r="AB3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AD3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="46"/>
+      <c r="AE3" s="68"/>
       <c r="AF3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1225,51 +1284,51 @@
       <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="I4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="58" t="s">
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="59"/>
+      <c r="AA4" s="60"/>
       <c r="AB4" s="12">
         <v>26</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="60" t="s">
+      <c r="AD4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="61"/>
+      <c r="AE4" s="62"/>
       <c r="AF4" s="12">
         <v>10</v>
       </c>
@@ -1284,55 +1343,55 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="I5" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="58" t="s">
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="59"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="12">
         <v>24</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="51" t="s">
+      <c r="AD5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="52">
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="76">
         <v>2</v>
       </c>
-      <c r="AG5" s="53" t="s">
+      <c r="AG5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1343,47 +1402,47 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="68" t="s">
+      <c r="T6" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="49" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="50"/>
+      <c r="AA6" s="42"/>
       <c r="AB6" s="14">
         <v>30</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="39"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -1395,50 +1454,50 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="I7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="68" t="s">
+      <c r="T7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="54" t="s">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
       <c r="AC7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
+      <c r="AD7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
       <c r="AG7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1450,37 +1509,37 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="I8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="69"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
     </row>
     <row r="9" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1489,47 +1548,47 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="I9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="65" t="s">
+      <c r="T9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="71" t="s">
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="73"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="66"/>
     </row>
     <row r="10" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -1538,49 +1597,49 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="I10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="65" t="s">
+      <c r="T10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="45" t="s">
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="47" t="s">
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="48"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="70"/>
     </row>
     <row r="11" spans="1:36" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1589,51 +1648,51 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="I11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="68" t="s">
+      <c r="T11" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="45" t="s">
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="46"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="46" t="s">
+      <c r="AD11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="46"/>
+      <c r="AE11" s="68"/>
       <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1648,51 +1707,51 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="I12" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="58" t="s">
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="59"/>
+      <c r="AA12" s="60"/>
       <c r="AB12" s="12">
         <v>15</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD12" s="60" t="s">
+      <c r="AD12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="61"/>
+      <c r="AE12" s="62"/>
       <c r="AF12" s="12">
         <v>10</v>
       </c>
@@ -1707,49 +1766,49 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="58" t="s">
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="59"/>
+      <c r="AA13" s="60"/>
       <c r="AB13" s="12">
         <v>20</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="51" t="s">
+      <c r="AD13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="77">
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="40">
         <v>2</v>
       </c>
-      <c r="AG13" s="53" t="s">
+      <c r="AG13" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1760,51 +1819,51 @@
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="I14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="66" t="s">
+      <c r="T14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="49" t="s">
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="50"/>
+      <c r="AA14" s="42"/>
       <c r="AB14" s="14">
         <v>15</v>
       </c>
       <c r="AC14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="53"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="39"/>
     </row>
     <row r="15" spans="1:36" ht="30.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
@@ -1813,50 +1872,50 @@
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="I15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="66" t="s">
+      <c r="T15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="54" t="s">
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
       <c r="AC15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AD15" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
+      <c r="AD15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
       <c r="AG15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1868,47 +1927,47 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="I16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="65" t="s">
+      <c r="T16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="79" t="s">
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1917,45 +1976,45 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="I17" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="76" t="s">
+      <c r="T17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
     </row>
     <row r="18" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1964,45 +2023,45 @@
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="I18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="76" t="s">
+      <c r="T18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
     </row>
     <row r="19" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2011,45 +2070,45 @@
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="I19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="76" t="s">
+      <c r="T19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
@@ -2058,41 +2117,41 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="78" t="s">
+      <c r="T20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
     </row>
     <row r="21" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2101,47 +2160,47 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="I21" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="76" t="s">
+      <c r="T21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="83" t="s">
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
     </row>
     <row r="22" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2150,45 +2209,45 @@
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="I22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
-      <c r="T22" s="76" t="s">
+      <c r="T22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
     </row>
     <row r="23" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2197,45 +2256,45 @@
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="I23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="76" t="s">
+      <c r="T23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
     </row>
     <row r="24" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -2244,43 +2303,43 @@
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="I24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
     </row>
     <row r="25" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2289,43 +2348,43 @@
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="I25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
     </row>
     <row r="26" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2334,43 +2393,43 @@
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="I26" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="84"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" ht="30.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
@@ -2379,39 +2438,39 @@
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="84"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
     </row>
     <row r="28" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2420,35 +2479,35 @@
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
+      <c r="I28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="33"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="37"/>
     </row>
     <row r="29" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2457,35 +2516,35 @@
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="I29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="33"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:33" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2494,35 +2553,35 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="I30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="33"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="37"/>
     </row>
     <row r="31" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2531,35 +2590,35 @@
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
+      <c r="I31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="33"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="37"/>
     </row>
     <row r="32" spans="1:33" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -2568,35 +2627,35 @@
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+      <c r="I32" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="33"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -2605,35 +2664,35 @@
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
+      <c r="I33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="33"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2642,35 +2701,35 @@
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
+      <c r="I34" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="33"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -2679,35 +2738,35 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
+      <c r="I35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="33"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2716,23 +2775,23 @@
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="I36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="27" t="s">
         <v>53</v>
       </c>
@@ -2751,12 +2810,12 @@
       <c r="S36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="33"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -2765,23 +2824,23 @@
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
+      <c r="I37" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
       <c r="N37" s="28"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
@@ -2790,12 +2849,12 @@
         <v>59</v>
       </c>
       <c r="S37" s="26"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="37"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="85"/>
     </row>
     <row r="38" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -2804,23 +2863,23 @@
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
+      <c r="I38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="29" t="s">
         <v>61</v>
       </c>
@@ -2831,12 +2890,12 @@
         <v>60</v>
       </c>
       <c r="S38" s="22"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="33"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -2845,109 +2904,111 @@
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="I39" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="28"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="28"/>
+      <c r="R39" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="S39" s="22"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="33"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="37"/>
     </row>
     <row r="40" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="86">
         <v>44254</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="28"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="92"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="33"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="37"/>
     </row>
     <row r="41" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="86">
         <v>44255</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="28"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="92"/>
       <c r="S41" s="22"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="33"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="37"/>
     </row>
     <row r="42" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -2956,35 +3017,37 @@
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="28"/>
+      <c r="I42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="S42" s="22"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="33"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="37"/>
     </row>
     <row r="43" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -2993,35 +3056,35 @@
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
+      <c r="I43" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
       <c r="N43" s="28"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
       <c r="R43" s="28"/>
       <c r="S43" s="22"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="33"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="37"/>
     </row>
     <row r="44" spans="1:25" s="25" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -3030,35 +3093,34 @@
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
+      <c r="I44" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="28"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
-      <c r="R44" s="28"/>
       <c r="S44" s="26"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="37"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="85"/>
     </row>
     <row r="45" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3067,35 +3129,35 @@
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
+      <c r="I45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="28"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="28"/>
       <c r="S45" s="22"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="33"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="37"/>
     </row>
     <row r="46" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -3104,35 +3166,35 @@
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
+      <c r="I46" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="28"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="28"/>
       <c r="S46" s="22"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="33"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="37"/>
     </row>
     <row r="47" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -3141,35 +3203,35 @@
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
+      <c r="I47" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
       <c r="N47" s="28"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="28"/>
       <c r="S47" s="22"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="33"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="37"/>
     </row>
     <row r="48" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -3178,35 +3240,35 @@
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
+      <c r="I48" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
       <c r="N48" s="28"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="28"/>
       <c r="S48" s="22"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="33"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="37"/>
     </row>
     <row r="49" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -3215,35 +3277,35 @@
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="I49" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="28"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="28"/>
       <c r="S49" s="22"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="33"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="37"/>
     </row>
     <row r="50" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -3252,35 +3314,35 @@
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="I50" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="28"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="28"/>
       <c r="S50" s="22"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="33"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="37"/>
     </row>
     <row r="51" spans="1:25" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -3289,38 +3351,190 @@
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="I51" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="28"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="28"/>
       <c r="S51" s="22"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="33"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="176">
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z16:AG20"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="Z21:AG27"/>
     <mergeCell ref="C27:M27"/>
     <mergeCell ref="I18:M18"/>
@@ -3345,158 +3559,6 @@
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:Y19"/>
     <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z16:AG20"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="T50:Y50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
